--- a/docs/mcode/oncocore-TumorMarkerObservation.xlsx
+++ b/docs/mcode/oncocore-TumorMarkerObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="360">
   <si>
     <t>Path</t>
   </si>
@@ -204,19 +204,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -230,192 +309,12 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -426,9 +325,6 @@
   </si>
   <si>
     <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t>Observation:argoprofile.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier {[]} {[]}
@@ -545,6 +441,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Codes for high level observation categories .</t>
   </si>
   <si>
@@ -576,7 +475,10 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/TumorMarkerVS</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/oncocore/vs/TumorMarkerTestVS</t>
   </si>
   <si>
     <t>OBX-3</t>
@@ -676,6 +578,10 @@
     <t>Observation.issued</t>
   </si>
   <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Date/Time this was made available</t>
   </si>
   <si>
@@ -695,9 +601,6 @@
   </si>
   <si>
     <t>Observation.performer</t>
-  </si>
-  <si>
-    <t>Observation:argoprofile.performer</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
@@ -713,10 +616,6 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t>profile:target.reference}
-profile:target.reference}profile:target.reference}</t>
-  </si>
-  <si>
     <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
   </si>
   <si>
@@ -724,45 +623,6 @@
   </si>
   <si>
     <t>who.actor</t>
-  </si>
-  <si>
-    <t>shr-core-ResponsibleObserver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
-</t>
-  </si>
-  <si>
-    <t>ResponsibleObserver</t>
-  </si>
-  <si>
-    <t>Person directly responsible for carrying out the test.</t>
-  </si>
-  <si>
-    <t>shr-core-PerformingLaboratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
-</t>
-  </si>
-  <si>
-    <t>PerformingLaboratory</t>
-  </si>
-  <si>
-    <t>Organization responsible for carrying out the test.</t>
-  </si>
-  <si>
-    <t>shr-core-PerformingOrganizationMedicalDirector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
-</t>
-  </si>
-  <si>
-    <t>PerformingOrganizationMedicalDirector</t>
-  </si>
-  <si>
-    <t>Director of the laboratory performing the test.</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -887,61 +747,13 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
   </si>
   <si>
     <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1047,7 +859,19 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1466,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM75"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1476,7 +1300,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.1953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1498,10 +1322,10 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.46484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.42578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="44.61328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.83203125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -1972,21 +1796,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2008,7 +1834,7 @@
         <v>42</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
         <v>42</v>
@@ -2034,11 +1860,15 @@
       <c r="AD5" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG5" s="2"/>
+      <c r="AG5" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH5" t="s" s="2">
         <v>42</v>
       </c>
@@ -2049,7 +1879,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -2057,18 +1887,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2112,16 +1942,16 @@
         <v>42</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2138,11 +1968,15 @@
       <c r="AD6" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG6" s="2"/>
+      <c r="AG6" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH6" t="s" s="2">
         <v>42</v>
       </c>
@@ -2153,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2161,11 +1995,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2181,19 +2015,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2216,7 +2050,7 @@
         <v>42</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
         <v>42</v>
@@ -2242,13 +2076,17 @@
       <c r="AD7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2257,7 +2095,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2265,18 +2103,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2285,19 +2123,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2320,7 +2158,7 @@
         <v>42</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>42</v>
@@ -2346,11 +2184,15 @@
       <c r="AD8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>42</v>
       </c>
@@ -2361,7 +2203,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2369,11 +2211,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2389,19 +2231,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2424,7 +2266,7 @@
         <v>42</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>42</v>
@@ -2450,11 +2292,15 @@
       <c r="AD9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE9" s="2"/>
+      <c r="AE9" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>42</v>
       </c>
@@ -2465,7 +2311,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2473,11 +2319,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2490,22 +2336,22 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2528,16 +2374,16 @@
         <v>42</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2554,11 +2400,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2569,7 +2419,7 @@
         <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>42</v>
@@ -2577,7 +2427,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2597,21 +2447,21 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2632,37 +2482,39 @@
         <v>42</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AB11" s="2"/>
+      <c r="AC11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="Y11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2670,20 +2522,22 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2698,23 +2552,21 @@
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2763,13 +2615,13 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
@@ -2778,20 +2630,22 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2812,17 +2666,15 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2847,13 +2699,13 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2871,13 +2723,13 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
@@ -2886,22 +2738,24 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2920,17 +2774,15 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -2979,67 +2831,67 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>119</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
       </c>
@@ -3063,13 +2915,11 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -3090,10 +2940,10 @@
         <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>42</v>
@@ -3102,32 +2952,32 @@
         <v>42</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>42</v>
@@ -3136,16 +2986,16 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3156,7 +3006,7 @@
         <v>42</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>42</v>
@@ -3171,13 +3021,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>42</v>
@@ -3195,13 +3045,13 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
@@ -3213,49 +3063,51 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3279,13 +3131,11 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3303,13 +3153,13 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
@@ -3318,34 +3168,32 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>42</v>
@@ -3354,17 +3202,19 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3401,23 +3251,25 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>42</v>
@@ -3426,22 +3278,20 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3462,16 +3312,18 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3519,13 +3371,13 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3534,22 +3386,20 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3561,7 +3411,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>42</v>
@@ -3570,16 +3420,20 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3627,37 +3481,35 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>140</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3675,18 +3527,20 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3735,13 +3589,13 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
@@ -3750,18 +3604,18 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3769,32 +3623,32 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3819,11 +3673,13 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3841,13 +3697,13 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>42</v>
@@ -3856,18 +3712,18 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3875,7 +3731,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>51</v>
@@ -3890,18 +3746,20 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3910,7 +3768,7 @@
         <v>42</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>42</v>
@@ -3925,13 +3783,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3949,7 +3807,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3961,29 +3819,29 @@
         <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>51</v>
@@ -3998,19 +3856,19 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4035,11 +3893,11 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -4057,47 +3915,47 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>42</v>
@@ -4106,19 +3964,17 @@
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4143,13 +3999,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4167,7 +4023,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4182,18 +4038,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4216,17 +4072,17 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4275,7 +4131,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -4290,18 +4146,18 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>197</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4312,10 +4168,10 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>
@@ -4324,19 +4180,19 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4361,13 +4217,11 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4385,7 +4239,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4397,21 +4251,21 @@
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4431,21 +4285,23 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4469,13 +4325,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4493,7 +4349,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4508,22 +4364,20 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4532,7 +4386,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4541,21 +4395,21 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4591,23 +4445,25 @@
         <v>42</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB29" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>42</v>
@@ -4616,22 +4472,20 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4640,7 +4494,7 @@
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4649,18 +4503,20 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4709,13 +4565,13 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>42</v>
@@ -4724,22 +4580,20 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4757,19 +4611,23 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4817,7 +4675,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4829,25 +4687,23 @@
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4865,16 +4721,16 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4925,13 +4781,13 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
@@ -4940,32 +4796,32 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>224</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
@@ -4974,20 +4830,18 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5035,69 +4889,67 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="I34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5121,11 +4973,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5143,25 +4997,25 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5169,11 +5023,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5192,18 +5046,16 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5227,13 +5079,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
@@ -5251,7 +5103,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5260,16 +5112,16 @@
         <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5277,7 +5129,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5300,18 +5152,16 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5359,7 +5209,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5368,16 +5218,16 @@
         <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5385,7 +5235,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5396,7 +5246,7 @@
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5408,19 +5258,19 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5445,11 +5295,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5467,7 +5319,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5482,10 +5334,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5493,7 +5345,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5516,16 +5368,18 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>62</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>63</v>
+        <v>297</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5546,7 +5400,7 @@
         <v>42</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>42</v>
@@ -5572,11 +5426,15 @@
       <c r="AD38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5587,7 +5445,7 @@
         <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5595,18 +5453,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5618,17 +5476,15 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5650,7 +5506,7 @@
         <v>42</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
         <v>42</v>
@@ -5676,11 +5532,15 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5688,10 +5548,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5699,7 +5559,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5710,7 +5570,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5722,19 +5582,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5756,7 +5616,7 @@
         <v>42</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
         <v>42</v>
@@ -5782,11 +5642,15 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5794,10 +5658,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5805,7 +5669,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5825,23 +5689,19 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>264</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5862,7 +5722,7 @@
         <v>42</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>42</v>
@@ -5888,11 +5748,15 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5900,10 +5764,10 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5911,18 +5775,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5934,20 +5798,18 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>296</v>
+        <v>92</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5971,13 +5833,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -5995,13 +5857,13 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
@@ -6010,10 +5872,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -6021,39 +5883,39 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>305</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>306</v>
+        <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
+        <v>94</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6103,13 +5965,13 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
@@ -6118,10 +5980,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6129,7 +5991,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6140,7 +6002,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6152,24 +6014,26 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>312</v>
+        <v>67</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>42</v>
@@ -6187,13 +6051,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6211,7 +6075,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6226,10 +6090,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6237,7 +6101,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6245,7 +6109,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>51</v>
@@ -6260,20 +6124,16 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6321,25 +6181,25 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6347,7 +6207,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6358,7 +6218,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6367,19 +6227,23 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>62</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6427,13 +6291,13 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>42</v>
@@ -6442,10 +6306,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6453,18 +6317,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6476,17 +6340,15 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6535,13 +6397,13 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>42</v>
@@ -6553,7 +6415,7 @@
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6561,11 +6423,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6578,22 +6440,22 @@
         <v>42</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6643,7 +6505,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6661,7 +6523,7 @@
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6669,38 +6531,40 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>333</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>334</v>
+        <v>96</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6749,25 +6613,25 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6775,7 +6639,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6783,7 +6647,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>51</v>
@@ -6795,19 +6659,21 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>333</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6831,13 +6697,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -6855,28 +6721,28 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>337</v>
+        <v>146</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>342</v>
+        <v>147</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -6901,10 +6767,10 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>344</v>
@@ -6916,7 +6782,7 @@
         <v>346</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>347</v>
+        <v>197</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6941,13 +6807,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -6980,10 +6846,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6991,7 +6857,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7014,17 +6880,19 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>352</v>
+        <v>128</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>355</v>
+        <v>205</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7049,13 +6917,11 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>42</v>
@@ -7073,7 +6939,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7082,16 +6948,16 @@
         <v>51</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>356</v>
+        <v>208</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7099,7 +6965,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7110,7 +6976,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -7122,16 +6988,20 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7152,7 +7022,7 @@
         <v>42</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>42</v>
@@ -7179,13 +7049,13 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
@@ -7194,10 +7064,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7205,7 +7075,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7225,23 +7095,19 @@
         <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>362</v>
+        <v>267</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7262,7 +7128,7 @@
         <v>42</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>42</v>
@@ -7288,15 +7154,11 @@
       <c r="AD54" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE54" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="AE54" s="2"/>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG54" s="2"/>
       <c r="AH54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7304,10 +7166,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>367</v>
+        <v>269</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7315,18 +7177,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7338,15 +7200,17 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7368,7 +7232,7 @@
         <v>42</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W55" t="s" s="2">
         <v>42</v>
@@ -7394,15 +7258,11 @@
       <c r="AD55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE55" t="s" s="2">
-        <v>368</v>
-      </c>
+      <c r="AE55" s="2"/>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG55" s="2"/>
       <c r="AH55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7413,7 +7273,7 @@
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7421,11 +7281,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>66</v>
+        <v>273</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7438,22 +7298,22 @@
         <v>42</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7476,7 +7336,7 @@
         <v>42</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W56" t="s" s="2">
         <v>42</v>
@@ -7502,15 +7362,11 @@
       <c r="AD56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE56" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7521,7 +7377,7 @@
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7529,40 +7385,38 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>277</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7584,7 +7438,7 @@
         <v>42</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
         <v>42</v>
@@ -7610,26 +7464,22 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="AE57" s="2"/>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG57" s="2"/>
       <c r="AH57" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7637,7 +7487,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7660,26 +7510,22 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>372</v>
+        <v>283</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>42</v>
@@ -7694,16 +7540,16 @@
         <v>42</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>377</v>
+        <v>42</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7720,26 +7566,22 @@
       <c r="AD58" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE58" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="AE58" s="2"/>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7747,7 +7589,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7755,7 +7597,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>51</v>
@@ -7770,16 +7612,20 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7800,16 +7646,16 @@
         <v>42</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7826,15 +7672,11 @@
       <c r="AD59" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE59" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="AE59" s="2"/>
       <c r="AF59" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG59" s="2"/>
       <c r="AH59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7842,10 +7684,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>384</v>
+        <v>217</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7853,7 +7695,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7864,7 +7706,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
@@ -7873,22 +7715,20 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>386</v>
+        <v>296</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>388</v>
+        <v>298</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7910,7 +7750,7 @@
         <v>42</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>42</v>
@@ -7936,15 +7776,11 @@
       <c r="AD60" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE60" t="s" s="2">
-        <v>385</v>
-      </c>
+      <c r="AE60" s="2"/>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7952,10 +7788,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>390</v>
+        <v>299</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7963,7 +7799,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7986,13 +7822,13 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>62</v>
+        <v>301</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>63</v>
+        <v>302</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8016,7 +7852,7 @@
         <v>42</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
         <v>42</v>
@@ -8042,15 +7878,11 @@
       <c r="AD61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE61" t="s" s="2">
-        <v>391</v>
-      </c>
+      <c r="AE61" s="2"/>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8058,1495 +7890,17 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X66" s="2"/>
-      <c r="Y66" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE68" s="2"/>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" s="2"/>
-      <c r="AH68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE69" s="2"/>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" s="2"/>
-      <c r="AH69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE70" s="2"/>
-      <c r="AF70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG70" s="2"/>
-      <c r="AH70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE71" s="2"/>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" s="2"/>
-      <c r="AH71" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE72" s="2"/>
-      <c r="AF72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG72" s="2"/>
-      <c r="AH72" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE73" s="2"/>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" s="2"/>
-      <c r="AH73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE74" s="2"/>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" s="2"/>
-      <c r="AH74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AL75" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL75">
+  <autoFilter ref="A1:AL61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9556,7 +7910,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
